--- a/analysis/mails_01/P16_4/table_to_fill.xlsx
+++ b/analysis/mails_01/P16_4/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -57,12 +57,75 @@
     <t xml:space="preserve">project_name</t>
   </si>
   <si>
+    <t xml:space="preserve">MFD12105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-09-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">groundwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">city x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subterranean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freshwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groundwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polluted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urban – Groundwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No pollution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD12113</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12009</t>
   </si>
   <si>
-    <t xml:space="preserve">water</t>
-  </si>
-  <si>
     <t xml:space="preserve">2019-01-01</t>
   </si>
   <si>
@@ -72,21 +135,9 @@
     <t xml:space="preserve">11.687</t>
   </si>
   <si>
-    <t xml:space="preserve">groundwater</t>
-  </si>
-  <si>
     <t xml:space="preserve">glumsø</t>
   </si>
   <si>
-    <t xml:space="preserve">Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urban – Groundwater</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD12010</t>
   </si>
   <si>
@@ -117,9 +168,15 @@
     <t xml:space="preserve">10.2646</t>
   </si>
   <si>
+    <t xml:space="preserve">3140</t>
+  </si>
+  <si>
     <t xml:space="preserve">blommenslyst</t>
   </si>
   <si>
+    <t xml:space="preserve">Pollution results unknown</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD12076</t>
   </si>
   <si>
@@ -151,39 +208,6 @@
   </si>
   <si>
     <t xml:space="preserve">MFD12082</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">city x</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12106</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12108</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12109</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD12113</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -259,7 +283,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -269,11 +293,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE38140"/>
       </patternFill>
     </fill>
   </fills>
@@ -289,11 +308,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,35 +659,39 @@
       <c r="C2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
         <v>15</v>
@@ -677,35 +699,39 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -713,35 +739,39 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
@@ -749,35 +779,39 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
@@ -785,35 +819,39 @@
       <c r="C6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
         <v>18</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>24</v>
+      </c>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -821,35 +859,39 @@
       <c r="C7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -857,66 +899,74 @@
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
       <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" t="s">
+        <v>32</v>
+      </c>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
         <v>31</v>
       </c>
-      <c r="D9" t="s">
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
@@ -927,32 +977,36 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -963,68 +1017,84 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="H11" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L11" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="2"/>
-      <c r="H11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
         <v>37</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>38</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>39</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
         <v>40</v>
       </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" t="s">
-        <v>41</v>
-      </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -1035,32 +1105,40 @@
         <v>15</v>
       </c>
       <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
         <v>38</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" t="s">
-        <v>41</v>
-      </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
-      </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" t="s">
+        <v>24</v>
+      </c>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -1071,32 +1149,40 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" t="s">
         <v>40</v>
       </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" t="s">
-        <v>41</v>
-      </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14" t="s">
+        <v>24</v>
+      </c>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
@@ -1107,32 +1193,40 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
         <v>38</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
         <v>40</v>
       </c>
-      <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" t="s">
-        <v>41</v>
-      </c>
       <c r="I15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
@@ -1143,32 +1237,40 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" t="s">
         <v>40</v>
       </c>
-      <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" t="s">
-        <v>41</v>
-      </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
-      </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K16" t="s">
+        <v>22</v>
+      </c>
+      <c r="L16" t="s">
+        <v>23</v>
+      </c>
+      <c r="M16" t="s">
+        <v>32</v>
+      </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
@@ -1179,284 +1281,392 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s">
+        <v>39</v>
+      </c>
       <c r="F17" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>31</v>
+      </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K17" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" t="s">
+        <v>23</v>
+      </c>
+      <c r="M17" t="s">
+        <v>32</v>
+      </c>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
       <c r="F18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G18" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>51</v>
+      </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
-      </c>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
+        <v>23</v>
+      </c>
+      <c r="M18" t="s">
+        <v>53</v>
+      </c>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
         <v>50</v>
       </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
       <c r="F19" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
-      </c>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K19" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" t="s">
+        <v>23</v>
+      </c>
+      <c r="M19" t="s">
+        <v>32</v>
+      </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
       <c r="F20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>31</v>
+      </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K20" t="s">
+        <v>22</v>
+      </c>
+      <c r="L20" t="s">
+        <v>23</v>
+      </c>
+      <c r="M20" t="s">
+        <v>32</v>
+      </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" t="s">
+        <v>59</v>
+      </c>
       <c r="F21" t="s">
-        <v>19</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
-      </c>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K21" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" t="s">
+        <v>23</v>
+      </c>
+      <c r="M21" t="s">
+        <v>32</v>
+      </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>59</v>
+      </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M22" t="s">
+        <v>24</v>
+      </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
       <c r="F23" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>31</v>
+      </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
-      </c>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" t="s">
+        <v>23</v>
+      </c>
+      <c r="M23" t="s">
+        <v>32</v>
+      </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>59</v>
+      </c>
       <c r="F24" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>31</v>
+      </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s">
+        <v>23</v>
+      </c>
+      <c r="M24" t="s">
+        <v>32</v>
+      </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
+      </c>
       <c r="F25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>31</v>
+      </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" t="s">
+        <v>23</v>
+      </c>
+      <c r="M25" t="s">
+        <v>32</v>
+      </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1475,10 +1685,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2">
@@ -1486,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -1494,7 +1704,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -1502,7 +1712,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1510,7 +1720,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1518,7 +1728,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1526,7 +1736,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
@@ -1534,7 +1744,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9">
@@ -1542,7 +1752,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10">
@@ -1550,7 +1760,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -1558,7 +1768,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -1566,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -1574,7 +1784,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -1582,7 +1792,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -1590,7 +1800,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
